--- a/Tables/aq_hmf_metrics_outlet_mean_50_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_mean_50_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -547,61 +547,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.094833834706405</v>
+        <v>0.8909283006129577</v>
       </c>
       <c r="C2" t="n">
-        <v>102.0519841269841</v>
+        <v>100.8055555555555</v>
       </c>
       <c r="D2" t="n">
-        <v>48.85834467120181</v>
+        <v>47.16280864197531</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6321424804834876</v>
+        <v>0.4661032501821049</v>
       </c>
       <c r="F2" t="n">
-        <v>28.60057142857143</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>3.547222222222222</v>
+        <v>3.097222222222222</v>
       </c>
       <c r="H2" t="n">
-        <v>191.0714285714286</v>
+        <v>190.0277777777778</v>
       </c>
       <c r="I2" t="n">
-        <v>0.126547814062619</v>
+        <v>0.1054275276166308</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1686761469070399</v>
+        <v>0.1629302082050916</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1909192147822072</v>
+        <v>0.2717131122427428</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1605775865689228</v>
+        <v>0.2207190507547644</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1266100515107251</v>
+        <v>0.1135441439319298</v>
       </c>
       <c r="N2" t="n">
-        <v>0.136415926300055</v>
+        <v>0.09713384039617273</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2374803427368023</v>
+        <v>0.1282552667706072</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2644020600519427</v>
+        <v>0.1738618135676352</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2069018988537766</v>
+        <v>0.1248334590274632</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2356455236972665</v>
+        <v>0.1231208561450952</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1687270340140647</v>
+        <v>0.1258289094528396</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0952702342885728</v>
+        <v>0.09409121788248001</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -1306,61 +1306,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1715028213644416</v>
+        <v>0.2194455294094764</v>
       </c>
       <c r="C13" t="n">
-        <v>19.26769433465086</v>
+        <v>20.04452075098814</v>
       </c>
       <c r="D13" t="n">
-        <v>4.579844151538525</v>
+        <v>5.39887120889199</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03590134468587871</v>
+        <v>0.06042854026763878</v>
       </c>
       <c r="F13" t="n">
-        <v>93.33333333333333</v>
+        <v>90</v>
       </c>
       <c r="G13" t="n">
-        <v>5.452753623188406</v>
+        <v>4.795815217391304</v>
       </c>
       <c r="H13" t="n">
-        <v>151.7215283267457</v>
+        <v>153.3411462450593</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03929561593846622</v>
+        <v>0.05187826633149767</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04087648941422534</v>
+        <v>0.05815949753134901</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05263799841353112</v>
+        <v>0.06743826997452235</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0354949041381982</v>
+        <v>0.05381020515620864</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06180079491350322</v>
+        <v>0.08493767987848141</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02799506811366088</v>
+        <v>0.04832454993674646</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03669224491300702</v>
+        <v>0.03693849953777927</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03213014267610603</v>
+        <v>0.02409760700707952</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04788672122590775</v>
+        <v>0.1209947055399268</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02239358364379966</v>
+        <v>0.07930519293928176</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03732800724076044</v>
+        <v>0.04736982553735833</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04588983872737602</v>
+        <v>0.07307709545041502</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1444,61 +1444,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5073278038809614</v>
+        <v>0.4781141615082807</v>
       </c>
       <c r="C15" t="n">
-        <v>19.75314924331915</v>
+        <v>20.50812633768803</v>
       </c>
       <c r="D15" t="n">
-        <v>4.660762481996548</v>
+        <v>5.190747141310813</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1079327300027508</v>
+        <v>0.1096580564755347</v>
       </c>
       <c r="F15" t="n">
-        <v>92.53333333333333</v>
+        <v>90.11764705882354</v>
       </c>
       <c r="G15" t="n">
-        <v>4.86140115258948</v>
+        <v>4.678127067410885</v>
       </c>
       <c r="H15" t="n">
-        <v>168.6565836458954</v>
+        <v>169.7191398861797</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1291362707973906</v>
+        <v>0.1185326326060638</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1213261122143846</v>
+        <v>0.1153965338333724</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1786291473755786</v>
+        <v>0.1685412954115508</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1535654941492967</v>
+        <v>0.1494462963906715</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1048385889461587</v>
+        <v>0.1060119257720372</v>
       </c>
       <c r="N15" t="n">
-        <v>0.223875607522409</v>
+        <v>0.2065647790308479</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07469022175820784</v>
+        <v>0.07404980166583089</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05729159960597983</v>
+        <v>0.05064582044988417</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3525704876415549</v>
+        <v>0.3322384945276797</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1117145670482531</v>
+        <v>0.1104858600898771</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08018661381321737</v>
+        <v>0.08032028418206012</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09958890316587371</v>
+        <v>0.09616970796627654</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1927,46 +1927,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9769347416424802</v>
+        <v>0.1624667951594629</v>
       </c>
       <c r="C22" t="n">
-        <v>45.7</v>
+        <v>35.88518667841056</v>
       </c>
       <c r="D22" t="n">
-        <v>17.21071428571428</v>
+        <v>13.12873620160402</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4186356387818895</v>
+        <v>0.06549720249553442</v>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>51.33333333333334</v>
       </c>
       <c r="G22" t="n">
-        <v>2.85</v>
+        <v>3.039693360797607</v>
       </c>
       <c r="H22" t="n">
-        <v>200.9</v>
+        <v>217.7124530195801</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1844391751792157</v>
+        <v>0.02572716903778226</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2144138032465679</v>
+        <v>0.04106093176089142</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3534056134947899</v>
+        <v>0.05940363528490086</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3568100168257373</v>
+        <v>0.06043987072978194</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3911462654551286</v>
+        <v>0.06168808870626282</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2035417404896486</v>
+        <v>0.05523336170208643</v>
       </c>
       <c r="O22" t="n">
-        <v>2.446575546293404e-05</v>
+        <v>0.006739228262981803</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1975,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.003751415837568</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.001182511514016</v>
       </c>
       <c r="T22" t="n">
-        <v>0.03063112583892587</v>
+        <v>0.002290198592576173</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_mean_50_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_mean_50_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,65 +543,65 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8909283006129577</v>
+        <v>0.5132423151155214</v>
       </c>
       <c r="C2" t="n">
-        <v>100.8055555555555</v>
+        <v>60.8501432151808</v>
       </c>
       <c r="D2" t="n">
-        <v>47.16280864197531</v>
+        <v>21.63610070250682</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4661032501821049</v>
+        <v>0.2523994881526841</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>47.50185714285715</v>
       </c>
       <c r="G2" t="n">
-        <v>3.097222222222222</v>
+        <v>3.677330230337749</v>
       </c>
       <c r="H2" t="n">
-        <v>190.0277777777778</v>
+        <v>200.9166075361564</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1054275276166308</v>
+        <v>0.1531232160721236</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1629302082050916</v>
+        <v>0.1068928158696718</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2717131122427428</v>
+        <v>0.1326114927013596</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2207190507547644</v>
+        <v>0.09909638024916061</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1135441439319298</v>
+        <v>0.06700651692666341</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09713384039617273</v>
+        <v>0.04021458319429774</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1282552667706072</v>
+        <v>0.07067248365168952</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1738618135676352</v>
+        <v>0.0983839619850299</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1248334590274632</v>
+        <v>0.07188671202555272</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1231208561450952</v>
+        <v>0.132515831748805</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1258289094528396</v>
+        <v>0.07878572203887238</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09409121788248001</v>
+        <v>0.08516087019805166</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02360318930504457</v>
+        <v>0.2533695492829026</v>
       </c>
       <c r="C3" t="n">
-        <v>29.1875</v>
+        <v>46.71405202431463</v>
       </c>
       <c r="D3" t="n">
-        <v>8.146472849046379</v>
+        <v>19.39041195433829</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006623660101278728</v>
+        <v>0.1257140987814921</v>
       </c>
       <c r="F3" t="n">
-        <v>68</v>
+        <v>51.91252941176471</v>
       </c>
       <c r="G3" t="n">
-        <v>4.145833333333334</v>
+        <v>3.202303839145866</v>
       </c>
       <c r="H3" t="n">
-        <v>229.4981060606061</v>
+        <v>202.8384076425996</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00166958392901328</v>
+        <v>0.07253837635974915</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00481517523471341</v>
+        <v>0.05565261118953309</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00937486973060064</v>
+        <v>0.06590163184014766</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006308739703534465</v>
+        <v>0.05512679624661319</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00325425129844248</v>
+        <v>0.04355757907624901</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00557115834073176</v>
+        <v>0.03146852471909044</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007353969203507039</v>
+        <v>0.03359284126002617</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01145894433340608</v>
+        <v>0.04142910008457462</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01113874172840242</v>
+        <v>0.02982252889631247</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008481361700538202</v>
+        <v>0.05590186250287746</v>
       </c>
       <c r="S3" t="n">
-        <v>0.002225833267580496</v>
+        <v>0.03393064046399515</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004655038127442192</v>
+        <v>0.03970984803430506</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4551085985490882</v>
+        <v>0.03011143241664432</v>
       </c>
       <c r="C4" t="n">
-        <v>22.91011721341241</v>
+        <v>37.875</v>
       </c>
       <c r="D4" t="n">
-        <v>5.599358017183451</v>
+        <v>12.63216036414566</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09433302852553306</v>
+        <v>0.01010423017981237</v>
       </c>
       <c r="F4" t="n">
-        <v>82.17654545454546</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>4.525194002213452</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>128.2072481710811</v>
+        <v>230.0416666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1983500240022064</v>
+        <v>0.00249428376939168</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1723914935159727</v>
+        <v>0.004479330314373121</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1366875575798186</v>
+        <v>0.01390307330409984</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07003580551284748</v>
+        <v>0.01145046287151245</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01663312964012545</v>
+        <v>0.0046393188795576</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004667836312401885</v>
+        <v>0.004263973414505281</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0002861603725265833</v>
+        <v>0.01242982706267232</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0005165499433968284</v>
+        <v>0.01679900322566592</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001577716870718293</v>
+        <v>0.01707159251777616</v>
       </c>
       <c r="R4" t="n">
-        <v>0.006595335095509777</v>
+        <v>0.01100854142570304</v>
       </c>
       <c r="S4" t="n">
-        <v>0.08273480529858852</v>
+        <v>0.00154195423801776</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1489287902956168</v>
+        <v>0.00777215886651792</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7818443645815026</v>
+        <v>0.4210900000541694</v>
       </c>
       <c r="C5" t="n">
-        <v>24.85183388578974</v>
+        <v>26.59516735679779</v>
       </c>
       <c r="D5" t="n">
-        <v>11.44596991859301</v>
+        <v>8.911438907212716</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3763775182567269</v>
+        <v>0.08653641591828432</v>
       </c>
       <c r="F5" t="n">
-        <v>74</v>
+        <v>74.7428</v>
       </c>
       <c r="G5" t="n">
-        <v>2.367989867140971</v>
+        <v>4.006801242236024</v>
       </c>
       <c r="H5" t="n">
-        <v>204.1249494704503</v>
+        <v>135.2445151828848</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.1742027473994851</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05994110088288</v>
+        <v>0.1534224393469042</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2383957079486073</v>
+        <v>0.1191883270639195</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4774528585861561</v>
+        <v>0.0631599126607585</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3124408362716704</v>
+        <v>0.02146494084716687</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2429957896750604</v>
+        <v>0.002153965110909707</v>
       </c>
       <c r="O5" t="n">
-        <v>0.23283243948384</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.028366684250016</v>
+        <v>0.000610175941232256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.184628105179728</v>
+        <v>0.000121676357166336</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3114871248781824</v>
+        <v>0.00251936116874064</v>
       </c>
       <c r="S5" t="n">
-        <v>0.019036687821696</v>
+        <v>0.06037421049083674</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04852374833376</v>
+        <v>0.1370520415083606</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.10600863015123</v>
+        <v>0.5063144152272055</v>
       </c>
       <c r="C6" t="n">
-        <v>51.86894586894587</v>
+        <v>22.76163651784899</v>
       </c>
       <c r="D6" t="n">
-        <v>24.14176502509836</v>
+        <v>8.956279809446361</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5189952670046415</v>
+        <v>0.2097126144947722</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>82.76083333333334</v>
       </c>
       <c r="G6" t="n">
-        <v>2.427350427350428</v>
+        <v>3.118618944699906</v>
       </c>
       <c r="H6" t="n">
-        <v>159.9159544159544</v>
+        <v>203.4251282829971</v>
       </c>
       <c r="I6" t="n">
-        <v>0.346237041231936</v>
+        <v>0.0042982968306061</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4866946980708429</v>
+        <v>0.03424221723821588</v>
       </c>
       <c r="K6" t="n">
-        <v>0.346788491593152</v>
+        <v>0.1595520445214659</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3527912511909469</v>
+        <v>0.3046404695589989</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2184078378258</v>
+        <v>0.1652855704528427</v>
       </c>
       <c r="N6" t="n">
-        <v>0.094437816084864</v>
+        <v>0.1628597081068434</v>
       </c>
       <c r="O6" t="n">
-        <v>0.047055803006016</v>
+        <v>0.1452139341313014</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.04021772629492313</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.1024035271438655</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1425669782079344</v>
       </c>
       <c r="S6" t="n">
-        <v>0.063692516720448</v>
+        <v>0.02649990050679611</v>
       </c>
       <c r="T6" t="n">
-        <v>0.146699388169824</v>
+        <v>0.02957123363306696</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5758231144813912</v>
+        <v>0.06828319619926826</v>
       </c>
       <c r="C7" t="n">
-        <v>22.39373085933292</v>
+        <v>21.12771958717611</v>
       </c>
       <c r="D7" t="n">
-        <v>6.317379681997894</v>
+        <v>4.063569994871028</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1748945183422079</v>
+        <v>0.01306928123939791</v>
       </c>
       <c r="F7" t="n">
-        <v>82.62944999999999</v>
+        <v>88</v>
       </c>
       <c r="G7" t="n">
-        <v>3.880744284538797</v>
+        <v>5.576402613087396</v>
       </c>
       <c r="H7" t="n">
-        <v>172.6530504899322</v>
+        <v>223.48928304787</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1725885622203202</v>
+        <v>0.001866665783327688</v>
       </c>
       <c r="J7" t="n">
-        <v>0.170024119397971</v>
+        <v>0.004173814840278608</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1994977749951963</v>
+        <v>0.02216011041585947</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2162996356046705</v>
+        <v>0.01575994323842</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2040510234742241</v>
+        <v>0.03031333028117173</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1755457014576395</v>
+        <v>0.01776108885851862</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1950825475569927</v>
+        <v>0.01644911895451701</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1380850449428263</v>
+        <v>0.01115303742710885</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1306000880202612</v>
+        <v>0.01312701609300267</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1362330361535847</v>
+        <v>0.02882739835926421</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09832030894180661</v>
+        <v>0.02320454463563942</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1124697659909165</v>
+        <v>0.003974458576845288</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,53 +957,53 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8405368843419717</v>
+        <v>0.7401169286426872</v>
       </c>
       <c r="C8" t="n">
-        <v>25.00964091496978</v>
+        <v>43.20786867453534</v>
       </c>
       <c r="D8" t="n">
-        <v>7.308467321452022</v>
+        <v>18.2057080515017</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2708431945670212</v>
+        <v>0.3466819146527254</v>
       </c>
       <c r="F8" t="n">
-        <v>74.93875</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>3.642277115726566</v>
+        <v>2.770614570614571</v>
       </c>
       <c r="H8" t="n">
-        <v>188.6750239563246</v>
+        <v>154.3344458011125</v>
       </c>
       <c r="I8" t="n">
-        <v>0.112100534184412</v>
+        <v>0.2317878293946605</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1973626770037089</v>
+        <v>0.3257490210867064</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1157792862628716</v>
+        <v>0.2320819352183882</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1070732388598011</v>
+        <v>0.2362707234336832</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3220333275287915</v>
+        <v>0.1466314821063295</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4937929242433289</v>
+        <v>0.0637169824759104</v>
       </c>
       <c r="O8" t="n">
-        <v>0.121005707634249</v>
+        <v>0.031370535337344</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0336404137608</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01047666973675267</v>
+        <v>0.04284680958086928</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02770495413197954</v>
+        <v>0.09873301893590529</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6264987702228451</v>
+        <v>0.6557171683023835</v>
       </c>
       <c r="C9" t="n">
-        <v>26.86884889090772</v>
+        <v>20.95054489616711</v>
       </c>
       <c r="D9" t="n">
-        <v>6.775794880902549</v>
+        <v>6.35032940055833</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1768997305464098</v>
+        <v>0.2113226317060527</v>
       </c>
       <c r="F9" t="n">
-        <v>69</v>
+        <v>87.4504</v>
       </c>
       <c r="G9" t="n">
-        <v>3.758030291118526</v>
+        <v>3.677838172877757</v>
       </c>
       <c r="H9" t="n">
-        <v>175.967527239586</v>
+        <v>162.1713218195022</v>
       </c>
       <c r="I9" t="n">
-        <v>0.158202200961983</v>
+        <v>0.1638410559552142</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1407484475187042</v>
+        <v>0.2328657322305493</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1445914118831406</v>
+        <v>0.2689921772647089</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1127242692822121</v>
+        <v>0.3465512717983464</v>
       </c>
       <c r="M9" t="n">
-        <v>0.335853024621785</v>
+        <v>0.2418589285321553</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3816511171661093</v>
+        <v>0.1470489970193389</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2361856882579123</v>
+        <v>0.09308999761644068</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1294692827990978</v>
+        <v>0.07122863813351683</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02267506604384797</v>
+        <v>0.07016997984638521</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1208866637443984</v>
+        <v>0.1005626461220701</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1173995948342028</v>
+        <v>0.05280442537686655</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1948868974127392</v>
+        <v>0.1193373123222862</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5018416888711366</v>
+        <v>0.466945589156179</v>
       </c>
       <c r="C10" t="n">
-        <v>26.01611242439731</v>
+        <v>22.52137084601626</v>
       </c>
       <c r="D10" t="n">
-        <v>11.02757047934685</v>
+        <v>6.25872704614603</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1920322026615707</v>
+        <v>0.1442257904417744</v>
       </c>
       <c r="F10" t="n">
-        <v>72.6938</v>
+        <v>82.46117647058823</v>
       </c>
       <c r="G10" t="n">
-        <v>3.142105907658233</v>
+        <v>4.340779705713248</v>
       </c>
       <c r="H10" t="n">
-        <v>167.2770237030412</v>
+        <v>168.4376129200533</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1204560725289306</v>
+        <v>0.1699009084282591</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1579984284914142</v>
+        <v>0.1282942815603463</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2054445688532321</v>
+        <v>0.1392763473283858</v>
       </c>
       <c r="L10" t="n">
-        <v>0.250547942785841</v>
+        <v>0.1510912466272304</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06871257189562054</v>
+        <v>0.1484639919978125</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02226519667942085</v>
+        <v>0.1514931011180076</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4245976812549732</v>
+        <v>0.201060206310128</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04506807454822165</v>
+        <v>0.1447280873931621</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.06401591323140196</v>
+        <v>0.1354888903382748</v>
       </c>
       <c r="R10" t="n">
-        <v>0.137568135228377</v>
+        <v>0.1398004050270736</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05629490643437603</v>
+        <v>0.09459152518955145</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1353742500375979</v>
+        <v>0.1029434553197564</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1254268662002601</v>
+        <v>2.168353793599905</v>
       </c>
       <c r="C11" t="n">
-        <v>20.60127997364954</v>
+        <v>29.26787327783778</v>
       </c>
       <c r="D11" t="n">
-        <v>3.991032099085173</v>
+        <v>10.96723020516984</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02392622644113934</v>
+        <v>0.7639807620740112</v>
       </c>
       <c r="F11" t="n">
-        <v>89.59999999999999</v>
+        <v>62.4</v>
       </c>
       <c r="G11" t="n">
-        <v>5.207438405797101</v>
+        <v>3.17013272393597</v>
       </c>
       <c r="H11" t="n">
-        <v>223.0073326745718</v>
+        <v>218.6042023392429</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001993508492522501</v>
+        <v>0.2182236044138975</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01310276246666816</v>
+        <v>0.3497348753393162</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05251868082508545</v>
+        <v>0.2877362779089329</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02781639635164716</v>
+        <v>0.2607150781719385</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04187433644428174</v>
+        <v>0.8960627549979268</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05046204006410036</v>
+        <v>1.352950404053765</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03593566132020642</v>
+        <v>0.3683179269358224</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01484004792880949</v>
+        <v>0.05382466201728</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01727156382559479</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02840766459379795</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01765319177702402</v>
+        <v>0.004361795660095792</v>
       </c>
       <c r="T11" t="n">
-        <v>0.009037892686552227</v>
+        <v>0.03454423993196978</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1662529415832263</v>
+        <v>0.2779340595648183</v>
       </c>
       <c r="C12" t="n">
-        <v>25.51162053006383</v>
+        <v>27.02280261691017</v>
       </c>
       <c r="D12" t="n">
-        <v>8.117343004465772</v>
+        <v>7.170087109665654</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0673875179014375</v>
+        <v>0.06049623147138092</v>
       </c>
       <c r="F12" t="n">
-        <v>76.5524358974359</v>
+        <v>71.77777777777777</v>
       </c>
       <c r="G12" t="n">
-        <v>4.037051898380052</v>
+        <v>3.854618934615121</v>
       </c>
       <c r="H12" t="n">
-        <v>230.5358489019253</v>
+        <v>206.9287402281872</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002562226606201198</v>
+        <v>0.04941735163787549</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005071582753826463</v>
+        <v>0.07515402672196665</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02987906725401349</v>
+        <v>0.06552562595103038</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0434593484467353</v>
+        <v>0.06050417616224248</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06069723956126671</v>
+        <v>0.0887305069477769</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06544850225387679</v>
+        <v>0.145786570389714</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06928092790754518</v>
+        <v>0.08469453796745294</v>
       </c>
       <c r="P12" t="n">
-        <v>0.04419095138655339</v>
+        <v>0.04979826373999016</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04005574081340153</v>
+        <v>0.03396597596706417</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02848261055361696</v>
+        <v>0.08960106867767745</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02071072986541985</v>
+        <v>0.05708862561654841</v>
       </c>
       <c r="T12" t="n">
-        <v>0.009684699198481151</v>
+        <v>0.07454255306010733</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2194455294094764</v>
+        <v>0.4827946154818765</v>
       </c>
       <c r="C13" t="n">
-        <v>20.04452075098814</v>
+        <v>29.15938623392112</v>
       </c>
       <c r="D13" t="n">
-        <v>5.39887120889199</v>
+        <v>15.99928667617912</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06042854026763878</v>
+        <v>0.1951133016034976</v>
       </c>
       <c r="F13" t="n">
-        <v>90</v>
+        <v>67.151</v>
       </c>
       <c r="G13" t="n">
-        <v>4.795815217391304</v>
+        <v>2.512641621943947</v>
       </c>
       <c r="H13" t="n">
-        <v>153.3411462450593</v>
+        <v>178.2439879887555</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05187826633149767</v>
+        <v>0.1129777337934298</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05815949753134901</v>
+        <v>0.1624907440143251</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06743826997452235</v>
+        <v>0.210901232347861</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05381020515620864</v>
+        <v>0.2467903289568893</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08493767987848141</v>
+        <v>0.06562158717031286</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04832454993674646</v>
+        <v>0.01876857809290739</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03693849953777927</v>
+        <v>0.4221433989957625</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02409760700707952</v>
+        <v>0.04171821787347536</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1209947055399268</v>
+        <v>0.04985037673953611</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07930519293928176</v>
+        <v>0.1245888911806094</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04736982553735833</v>
+        <v>0.05116706933017692</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07307709545041502</v>
+        <v>0.1291483175063977</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5413212374744583</v>
+        <v>0.09384927580997905</v>
       </c>
       <c r="C14" t="n">
-        <v>20.45591408387886</v>
+        <v>23.43340460366704</v>
       </c>
       <c r="D14" t="n">
-        <v>5.330436257762343</v>
+        <v>6.657995241926416</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1589281347441329</v>
+        <v>0.02671657223902464</v>
       </c>
       <c r="F14" t="n">
-        <v>88.60609090909091</v>
+        <v>85.38461538461539</v>
       </c>
       <c r="G14" t="n">
-        <v>4.850839061819232</v>
+        <v>4.707449456940608</v>
       </c>
       <c r="H14" t="n">
-        <v>154.4887763346573</v>
+        <v>228.6577367768007</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1051589967016333</v>
+        <v>0.002492992521186745</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1821570789663401</v>
+        <v>0.01148976917462507</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2191911139001633</v>
+        <v>0.03530224867090403</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2371673005536669</v>
+        <v>0.01842635198810235</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2321390411079619</v>
+        <v>0.03349845480933684</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1045484690706224</v>
+        <v>0.03529749943691673</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04727407955664396</v>
+        <v>0.02607565762738276</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05339529789406861</v>
+        <v>0.01682462365849478</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07083521432864383</v>
+        <v>0.01375518337620088</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1303060897462782</v>
+        <v>0.01772516455503525</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05360355025632615</v>
+        <v>0.009401375867335925</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1293618815725253</v>
+        <v>0.005012149607565498</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4781141615082807</v>
+        <v>0.4665266615572894</v>
       </c>
       <c r="C15" t="n">
-        <v>20.50812633768803</v>
+        <v>28.28854338181713</v>
       </c>
       <c r="D15" t="n">
-        <v>5.190747141310813</v>
+        <v>11.6557713768715</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1096580564755347</v>
+        <v>0.2052025926603063</v>
       </c>
       <c r="F15" t="n">
-        <v>90.11764705882354</v>
+        <v>71.56228571428571</v>
       </c>
       <c r="G15" t="n">
-        <v>4.678127067410885</v>
+        <v>3.408555635972092</v>
       </c>
       <c r="H15" t="n">
-        <v>169.7191398861797</v>
+        <v>232.553362480504</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1185326326060638</v>
+        <v>0.002116229595698886</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1153965338333724</v>
+        <v>0.007034919247601135</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1685412954115508</v>
+        <v>0.08613473730658661</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1494462963906715</v>
+        <v>0.1626947156022805</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1060119257720372</v>
+        <v>0.1667942150075827</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2065647790308479</v>
+        <v>0.1556174363754019</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07404980166583089</v>
+        <v>0.1788629168090805</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05064582044988417</v>
+        <v>0.1245201221860644</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3322384945276797</v>
+        <v>0.08436780896084631</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1104858600898771</v>
+        <v>0.09409037819919328</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08032028418206012</v>
+        <v>0.05579398057660719</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09616970796627654</v>
+        <v>0.0179896408656034</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,65 +1509,65 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5254352233616634</v>
+        <v>2.544175823239737</v>
       </c>
       <c r="C16" t="n">
-        <v>27.67625482625483</v>
+        <v>28.63130328218244</v>
       </c>
       <c r="D16" t="n">
-        <v>17.68018018018018</v>
+        <v>14.80825223023992</v>
       </c>
       <c r="E16" t="n">
-        <v>0.37346109545842</v>
+        <v>1.466429612496106</v>
       </c>
       <c r="F16" t="n">
-        <v>66.66666666666667</v>
+        <v>67</v>
       </c>
       <c r="G16" t="n">
-        <v>1.88963963963964</v>
+        <v>2.483658354646206</v>
       </c>
       <c r="H16" t="n">
-        <v>252.1445302445302</v>
+        <v>164.8168904518329</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.8556817400654728</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.2100664145801954</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.5627060273832495</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03639960729350401</v>
+        <v>1.004973908475543</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2007435891763827</v>
+        <v>1.226004698262354</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3579556587959572</v>
+        <v>1.064013666246821</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1137606130779946</v>
+        <v>1.392135126224321</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0020388129552</v>
+        <v>4.319251750159618</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.001060182736704</v>
+        <v>0.378699312363624</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.5592168308235097</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.4171552454928406</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.059594631839741</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.369615232381027</v>
+        <v>0.5993263585955534</v>
       </c>
       <c r="C17" t="n">
-        <v>27.66666666666667</v>
+        <v>20.78548292044674</v>
       </c>
       <c r="D17" t="n">
-        <v>17.81313131313131</v>
+        <v>5.44610750902828</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9587684733797062</v>
+        <v>0.1812308406300607</v>
       </c>
       <c r="F17" t="n">
-        <v>66</v>
+        <v>87.697</v>
       </c>
       <c r="G17" t="n">
-        <v>1.727272727272727</v>
+        <v>4.864942254893502</v>
       </c>
       <c r="H17" t="n">
-        <v>248.6363636363636</v>
+        <v>156.223634564707</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1215348166924371</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1793526320868043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.2259044989330009</v>
       </c>
       <c r="L17" t="n">
-        <v>0.019817261924544</v>
+        <v>0.2412183814307219</v>
       </c>
       <c r="M17" t="n">
-        <v>0.577310276394432</v>
+        <v>0.2923669688794865</v>
       </c>
       <c r="N17" t="n">
-        <v>0.889180259653793</v>
+        <v>0.1720163142368618</v>
       </c>
       <c r="O17" t="n">
-        <v>0.218452012106496</v>
+        <v>0.07131313353259584</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.08400544521263535</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.04076264354039191</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.1088484735861949</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.05998189807145671</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.1415740857443195</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8133265071849793</v>
+        <v>0.8439120846093897</v>
       </c>
       <c r="C18" t="n">
-        <v>19.20746195558877</v>
+        <v>20.39432304203608</v>
       </c>
       <c r="D18" t="n">
-        <v>3.938977718147084</v>
+        <v>4.640277131296534</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1889305378173587</v>
+        <v>0.1812511697141696</v>
       </c>
       <c r="F18" t="n">
-        <v>94.39574999999999</v>
+        <v>91.55555555555556</v>
       </c>
       <c r="G18" t="n">
-        <v>5.419657092591284</v>
+        <v>5.289079688859339</v>
       </c>
       <c r="H18" t="n">
-        <v>108.193261345442</v>
+        <v>172.1899139700843</v>
       </c>
       <c r="I18" t="n">
-        <v>0.322249642474971</v>
+        <v>0.209346293407724</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2365229618406181</v>
+        <v>0.2036441360315552</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1395962327792728</v>
+        <v>0.2977335535002463</v>
       </c>
       <c r="L18" t="n">
-        <v>0.142448948589888</v>
+        <v>0.2663328425851604</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02043695375697979</v>
+        <v>0.1727251468076141</v>
       </c>
       <c r="N18" t="n">
-        <v>0.049634901394344</v>
+        <v>0.3677728998939622</v>
       </c>
       <c r="O18" t="n">
-        <v>0.041545910994588</v>
+        <v>0.1276423122185762</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0186041682162</v>
+        <v>0.08073373092519184</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.011254247512704</v>
+        <v>0.5330087705338166</v>
       </c>
       <c r="R18" t="n">
-        <v>0.03875133696234093</v>
+        <v>0.1648200607456876</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2451821026760222</v>
+        <v>0.1390186987112268</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3288233355844431</v>
+        <v>0.1707178820852908</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6126368721526955</v>
+        <v>0.2111423712017478</v>
       </c>
       <c r="C19" t="n">
-        <v>21.64075884279265</v>
+        <v>19.81162055335968</v>
       </c>
       <c r="D19" t="n">
-        <v>5.142023806985529</v>
+        <v>3.882225255406391</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1379765004293749</v>
+        <v>0.04021164424375148</v>
       </c>
       <c r="F19" t="n">
-        <v>85.69230769230769</v>
+        <v>92</v>
       </c>
       <c r="G19" t="n">
-        <v>4.673292210005583</v>
+        <v>4.65399209486166</v>
       </c>
       <c r="H19" t="n">
-        <v>165.2969546136079</v>
+        <v>222.2844071146245</v>
       </c>
       <c r="I19" t="n">
-        <v>0.158555223750234</v>
+        <v>0.00218377255631472</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1646750763217333</v>
+        <v>0.02649618390625249</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2302673228194151</v>
+        <v>0.09805653643892441</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1876872328446243</v>
+        <v>0.0459010760214879</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1285930817412944</v>
+        <v>0.05921584568894676</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2312292307637666</v>
+        <v>0.09951346687247298</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1318085719748181</v>
+        <v>0.06516547486874054</v>
       </c>
       <c r="P19" t="n">
-        <v>0.06378967623980536</v>
+        <v>0.02037056368136046</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3672243876201024</v>
+        <v>0.02348838542448298</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1374467454048834</v>
+        <v>0.02777806394559858</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1076906948651881</v>
+        <v>0.009326162489100913</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1413958028945147</v>
+        <v>0.01663304385111264</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,53 +1785,53 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1202757813101551</v>
+        <v>0.3925668106855091</v>
       </c>
       <c r="C20" t="n">
-        <v>39.34782608695652</v>
+        <v>28.01026012149046</v>
       </c>
       <c r="D20" t="n">
-        <v>20.95652173913043</v>
+        <v>14.26466154526175</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06381626380242449</v>
+        <v>0.2512029129271542</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G20" t="n">
-        <v>2.130434782608696</v>
+        <v>2.249865181273355</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6086956521739</v>
+        <v>246.297388871863</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.0086404893041376</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.00775238238085248</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02315794962495535</v>
+        <v>0.01844655229158646</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0515784726586368</v>
+        <v>0.1486438803348724</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06137506599470401</v>
+        <v>0.261921413863734</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0453734910589824</v>
+        <v>0.07398980576581772</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0060919731101376</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.0002161141732512</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.857836461744682</v>
+        <v>0.4443602588697264</v>
       </c>
       <c r="C21" t="n">
-        <v>22.78636090305687</v>
+        <v>24.97597009233845</v>
       </c>
       <c r="D21" t="n">
-        <v>7.60206481761018</v>
+        <v>7.643924059740674</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3521326014644586</v>
+        <v>0.147507675089519</v>
       </c>
       <c r="F21" t="n">
-        <v>81.5</v>
+        <v>78.63191666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>3.416217573986116</v>
+        <v>3.756095517085966</v>
       </c>
       <c r="H21" t="n">
-        <v>197.6043101479723</v>
+        <v>172.4611069303989</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06135158875461382</v>
+        <v>0.1365536351502054</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08504407481540086</v>
+        <v>0.139763914898426</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2353427681128472</v>
+        <v>0.1359924860865174</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3742989393426737</v>
+        <v>0.1118467786773913</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2952637450565022</v>
+        <v>0.08308464228759933</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2717954524841381</v>
+        <v>0.06266233418127816</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4155242460480851</v>
+        <v>0.00273441346024454</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1432592311100832</v>
+        <v>0.0002127161516592</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1050946914016944</v>
+        <v>0.0006511227192379636</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3553100501415696</v>
+        <v>0.001423389423084591</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0664122932026848</v>
+        <v>0.06349470817494467</v>
       </c>
       <c r="T21" t="n">
-        <v>0.08209959968431201</v>
+        <v>0.1037112618635496</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,65 +1923,65 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1624667951594629</v>
+        <v>0.4535105817777208</v>
       </c>
       <c r="C22" t="n">
-        <v>35.88518667841056</v>
+        <v>27.37373375306041</v>
       </c>
       <c r="D22" t="n">
-        <v>13.12873620160402</v>
+        <v>10.61851285414328</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06549720249553442</v>
+        <v>0.2061674131313281</v>
       </c>
       <c r="F22" t="n">
-        <v>51.33333333333334</v>
+        <v>72.05746666666667</v>
       </c>
       <c r="G22" t="n">
-        <v>3.039693360797607</v>
+        <v>3.462043910407824</v>
       </c>
       <c r="H22" t="n">
-        <v>217.7124530195801</v>
+        <v>182.937171877647</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02572716903778226</v>
+        <v>0.07914918884058114</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04106093176089142</v>
+        <v>0.08706037482853804</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05940363528490086</v>
+        <v>0.09196011106854275</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06043987072978194</v>
+        <v>0.06925504155706425</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06168808870626282</v>
+        <v>0.1218972044919182</v>
       </c>
       <c r="N22" t="n">
-        <v>0.05523336170208643</v>
+        <v>0.1532740415835518</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006739228262981803</v>
+        <v>0.04050271401637631</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.0003612776556614401</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.00113847315418368</v>
       </c>
       <c r="R22" t="n">
-        <v>0.003751415837568</v>
+        <v>0.002653221860472575</v>
       </c>
       <c r="S22" t="n">
-        <v>0.001182511514016</v>
+        <v>0.03352979911362218</v>
       </c>
       <c r="T22" t="n">
-        <v>0.002290198592576173</v>
+        <v>0.05744004484079644</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9408161297244642</v>
+        <v>0.6373176597898322</v>
       </c>
       <c r="C23" t="n">
-        <v>24.50976831129632</v>
+        <v>19.15073941263033</v>
       </c>
       <c r="D23" t="n">
-        <v>5.65070126515318</v>
+        <v>3.027042437253221</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2462101349381176</v>
+        <v>0.1128714766326829</v>
       </c>
       <c r="F23" t="n">
-        <v>75.611</v>
+        <v>95.33333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>4.295795818970691</v>
+        <v>6.097612487280035</v>
       </c>
       <c r="H23" t="n">
-        <v>153.2494152046784</v>
+        <v>164.649255386048</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2894355504895124</v>
+        <v>0.1570850896903149</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2708776964985586</v>
+        <v>0.1558307125291947</v>
       </c>
       <c r="K23" t="n">
-        <v>0.373699985415317</v>
+        <v>0.2191915041710028</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3246318297882497</v>
+        <v>0.1780136490795488</v>
       </c>
       <c r="M23" t="n">
-        <v>0.248121497834885</v>
+        <v>0.1204272847464225</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1101631804083219</v>
+        <v>0.2315000820738582</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1843812728912855</v>
+        <v>0.101884421758783</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0435103072769233</v>
+        <v>0.07256614914032938</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1248487501246275</v>
+        <v>0.3239450578571033</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2381802458653297</v>
+        <v>0.1113759972077587</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1578245108620323</v>
+        <v>0.1082284657564634</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2920707469781133</v>
+        <v>0.1346701248273862</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3585625666510041</v>
+        <v>0.08492921352100845</v>
       </c>
       <c r="C24" t="n">
-        <v>27.16946047929153</v>
+        <v>38.45199275362319</v>
       </c>
       <c r="D24" t="n">
-        <v>10.61159799177497</v>
+        <v>15.90442480225089</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1685194826557656</v>
+        <v>0.03964433696771905</v>
       </c>
       <c r="F24" t="n">
-        <v>67.42857142857143</v>
+        <v>47</v>
       </c>
       <c r="G24" t="n">
-        <v>2.700260042008334</v>
+        <v>2.968297101449275</v>
       </c>
       <c r="H24" t="n">
-        <v>191.704895661999</v>
+        <v>244.3849637681159</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1364167003234978</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1467584993692797</v>
+        <v>0.0101247451355232</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1823046425687357</v>
+        <v>0.0036576304416288</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1339965450165806</v>
+        <v>0.0137115268269588</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03792168795952518</v>
+        <v>0.04475213853930241</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06066259101845496</v>
+        <v>0.03967465627252194</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1344604589729186</v>
+        <v>0.02639304534895056</v>
       </c>
       <c r="P24" t="n">
-        <v>0.04361146913421442</v>
+        <v>0.004515970695768</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.04529421199972193</v>
+        <v>9.78630218496e-05</v>
       </c>
       <c r="R24" t="n">
-        <v>0.05375802487213432</v>
+        <v>0.0143980970896224</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01810655222563444</v>
+        <v>0.004379370227769601</v>
       </c>
       <c r="T24" t="n">
-        <v>0.09370572689581733</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6386504026699545</v>
+        <v>0.7192297808581759</v>
       </c>
       <c r="C25" t="n">
-        <v>19.03188920627018</v>
+        <v>33.81481481481482</v>
       </c>
       <c r="D25" t="n">
-        <v>3.331613107913082</v>
+        <v>12.40917107583774</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1269449015650182</v>
+        <v>0.2609393207115648</v>
       </c>
       <c r="F25" t="n">
-        <v>95.23975</v>
+        <v>54</v>
       </c>
       <c r="G25" t="n">
-        <v>5.744524723836569</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="H25" t="n">
-        <v>162.7375577568333</v>
+        <v>147.3703703703704</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1496779166324471</v>
+        <v>0.349912729731168</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1699282222968842</v>
+        <v>0.3013150935895579</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2298806188630418</v>
+        <v>0.187733896914816</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2041422128292769</v>
+        <v>0.1818250462773818</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1336920257493648</v>
+        <v>0.087995167146432</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2044301140417815</v>
+        <v>0.00244657554624</v>
       </c>
       <c r="O25" t="n">
-        <v>0.091241471708015</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.07897455427345207</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3791156821433565</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.08926970171882517</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08549804872983087</v>
+        <v>0.127385033440896</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1235215454305703</v>
+        <v>0.215597673969216</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,67 +2199,550 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.492787479444283</v>
+      </c>
+      <c r="C26" t="n">
+        <v>69.92307692307692</v>
+      </c>
+      <c r="D26" t="n">
+        <v>35.87435897435898</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7770512132977182</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.076923076923077</v>
+      </c>
+      <c r="H26" t="n">
+        <v>172.4615384615385</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.342561352732704</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.672074302552128</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.505843086271488</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.523757456104512</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.348820508505168</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.186429056623488</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.094111606012032</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.077801102370432</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7048148800775252</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20.15927658677449</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.602998602728188</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2643277898022836</v>
+      </c>
+      <c r="F27" t="n">
+        <v>92.41889473684211</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.395616438383739</v>
+      </c>
+      <c r="H27" t="n">
+        <v>178.7663939922478</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1593096183891076</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1321386172756416</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.2233031363582897</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2864770499305027</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.2224371053015671</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1734861205681343</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.2109507083193681</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.2453741777537717</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.07540032566897577</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1397718111097003</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.05546664659657437</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.1444363451069954</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9769347416424802</v>
+      </c>
+      <c r="C28" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.21071428571428</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4186356387818895</v>
+      </c>
+      <c r="F28" t="n">
+        <v>40</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H28" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1844391751792157</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2144138032465679</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3534056134947899</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3568100168257373</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.3911462654551286</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2035417404896486</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.446575546293404e-05</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.03063112583892587</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6447837265131483</v>
+      </c>
+      <c r="C29" t="n">
+        <v>21.48158836777258</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.758597261962066</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1561144535717839</v>
+      </c>
+      <c r="F29" t="n">
+        <v>85.75285714285714</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.634034605745131</v>
+      </c>
+      <c r="H29" t="n">
+        <v>156.4708529774319</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1743050571201264</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1906811572322342</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2539731418354401</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.2016024967571206</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1565702248103076</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.07244766498173295</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1074588406527458</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.04406245111193354</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.09340745826910479</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1256629105502801</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.1109379028532074</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.1764459410279196</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4882870268197532</v>
+      </c>
+      <c r="C30" t="n">
+        <v>26.08139714196517</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10.41584756615059</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1952902840441712</v>
+      </c>
+      <c r="F30" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.998745504819594</v>
+      </c>
+      <c r="H30" t="n">
+        <v>178.7555678661221</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1640111296260616</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1648648835929793</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2232873705707206</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.2086312251593306</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.07010870398496877</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06384677330863844</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.2117972119094888</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.07877658675756789</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.1221178452694167</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1546462592290846</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.05417255486589059</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.1629485293666524</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.495929060660399</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23.83691682249872</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.284429963437459</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1384664049783631</v>
+      </c>
+      <c r="F31" t="n">
+        <v>77.80850000000001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.083650396199838</v>
+      </c>
+      <c r="H31" t="n">
+        <v>183.1347791603623</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1813360684854262</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1071825065653926</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.1300033727256837</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.08604799941099447</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1662431184162929</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2040424058959402</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.2970750974975446</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.2049414517521357</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.1910301961941373</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.1719034261850992</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.1438361925067467</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.1056022196595469</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6372101475603722</v>
+      </c>
+      <c r="C32" t="n">
+        <v>18.67519602317671</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.115205334647407</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1237632293566714</v>
+      </c>
+      <c r="F32" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6.108075017797817</v>
+      </c>
+      <c r="H32" t="n">
+        <v>165.6021929876602</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1466266217870711</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.14687023745169</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.2243012949775494</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.2087187070800607</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1262558936910752</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.2053539477848772</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.09481458871898507</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.09238223389310764</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.357546668001536</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.08608989891108623</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.08280391365737959</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.1225758228657488</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>1.59761383169472</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>20.25581395348837</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>6.910492801771871</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E33" t="n">
         <v>0.49635734530535</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F33" t="n">
         <v>89.583</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G33" t="n">
         <v>2.930232558139535</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>110.5116279069767</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>0.8005544698089599</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J33" t="n">
         <v>0.55486294575768</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K33" t="n">
         <v>0.244902212178624</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>0.434022501902976</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.04403835983232</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>0.44160688609632</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T33" t="n">
         <v>0.7420226866370477</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
